--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 24802-2025</t>
+          <t>A 24809-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -799,216 +799,216 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 24802-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 1510-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>3.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Svart stork</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24809-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44805</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45177</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.3</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45401</v>
+        <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45817</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>10.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45817</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44960</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44958</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44273</v>
+        <v>45434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45306</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44981</v>
+        <v>44958</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2095,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2152,14 +2152,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>44984</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2209,14 +2209,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45701</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2228,8 +2228,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2266,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45930</v>
+        <v>44725</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2323,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45571</v>
+        <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2343,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2380,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45932</v>
+        <v>45863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2437,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45863</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2457,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2494,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45863</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2551,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45733</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2570,13 +2575,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45089</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44984</v>
+        <v>44981</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45401</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45727</v>
+        <v>45268</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2898,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45701</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2974,13 +2974,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3017,14 +3012,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45434</v>
+        <v>45138</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3032,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3074,14 +3069,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45394</v>
+        <v>45932</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3093,13 +3088,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3136,14 +3126,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3156,7 +3146,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3193,14 +3183,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45139</v>
+        <v>44805</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3203,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3250,14 +3240,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3269,8 +3259,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3307,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45268</v>
+        <v>45139</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45138</v>
+        <v>44960</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3421,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44725</v>
+        <v>45727</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3478,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44981</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3493,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3535,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44981</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45030</v>
+        <v>45571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45189</v>
+        <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45139</v>
+        <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45520</v>
+        <v>45189</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3778,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3815,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44596</v>
+        <v>45520</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3835,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3872,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3892,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3929,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3949,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3986,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45306</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4006,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4043,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45594</v>
+        <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4063,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4100,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45225</v>
+        <v>45177</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4120,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4157,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45517</v>
+        <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4181,8 +4176,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45426</v>
+        <v>45594</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45225</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45411</v>
+        <v>45517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45817</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45817</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.2</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45799</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45306</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45817</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45817</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45902.63017361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45306</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45747.52465277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44958</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>45705.36702546296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44984</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45701</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44725</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44981</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45401</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45268</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45089.33711805556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>45138</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45932</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44805</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45139</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44960</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45727</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45370.45334490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45371.59097222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45189</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45520</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45754.43791666667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45139</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45161.44363425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45177</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45594</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45225</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45793.47238425926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45793.48923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45799</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45306</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45817</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45817</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45902.63017361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45306</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45747.52465277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44958</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>45705.36702546296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44984</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45701</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44725</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44981</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45401</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45268</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45089.33711805556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>45138</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45932</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44805</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45139</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44960</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45727</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45370.45334490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45371.59097222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45189</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45520</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45754.43791666667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45139</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45161.44363425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45177</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45594</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45225</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45793.47238425926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45793.48923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 24809-2025</t>
+          <t>A 24802-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -799,216 +799,216 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 1510-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Svart stork</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24809-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 24802-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 1510-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Svart stork</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44273</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45411</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45030</v>
+        <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45817</v>
+        <v>44981</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10.2</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45817</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44596</v>
+        <v>45733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1658,8 +1658,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1701,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1758,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45434</v>
+        <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1778,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1815,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1835,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1949,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45930</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2006,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44958</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2152,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44984</v>
+        <v>45930</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2209,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45701</v>
+        <v>44805</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2228,13 +2233,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44725</v>
+        <v>45177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>10.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45863</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>44960</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45863</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>44273</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44981</v>
+        <v>45727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45401</v>
+        <v>45701</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2803,8 +2803,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2846,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45268</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2861,7 +2866,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2905,7 +2910,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2955,14 +2960,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2975,7 +2980,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3012,14 +3017,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45138</v>
+        <v>45394</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3031,8 +3036,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3069,14 +3079,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45932</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3099,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3126,14 +3136,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3156,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3183,14 +3193,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44805</v>
+        <v>45932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3213,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3240,14 +3250,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45733</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3259,13 +3269,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3307,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45139</v>
+        <v>45268</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3327,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44960</v>
+        <v>45138</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3384,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3421,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45727</v>
+        <v>44725</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3478,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>44981</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3498,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3535,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>44981</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3555,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3592,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45571</v>
+        <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3612,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3649,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44981</v>
+        <v>45189</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44981</v>
+        <v>45139</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45189</v>
+        <v>45520</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,7 +3783,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3815,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45520</v>
+        <v>44596</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3835,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3872,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3929,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45139</v>
+        <v>45019</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3949,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3986,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45306</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4006,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4043,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45089</v>
+        <v>45594</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4063,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4100,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45177</v>
+        <v>45225</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4157,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45394</v>
+        <v>45517</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4176,13 +4181,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45594</v>
+        <v>45426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45225</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45426</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45517</v>
+        <v>45411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45817</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.9</v>
+        <v>10.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45401</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45089</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44958</v>
+        <v>45177</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44981</v>
+        <v>45394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1487,8 +1487,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1530,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>44273</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1550,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1587,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45571</v>
+        <v>45594</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1644,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45733</v>
+        <v>45225</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1658,13 +1663,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1758,14 +1758,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45089</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1815,14 +1815,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44984</v>
+        <v>45517</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1872,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1929,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45817</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45930</v>
+        <v>45817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44805</v>
+        <v>44596</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45177</v>
+        <v>45434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>10.3</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45306</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45863</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44960</v>
+        <v>45930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45863</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44273</v>
+        <v>44958</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>44984</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45727</v>
+        <v>45701</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2746,8 +2746,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2789,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45701</v>
+        <v>44725</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2803,13 +2808,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2846,14 +2846,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45863</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2903,14 +2903,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2960,14 +2960,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45434</v>
+        <v>45863</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45394</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3036,13 +3036,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3079,14 +3074,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3099,7 +3094,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3136,14 +3131,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45139</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3156,7 +3151,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3193,14 +3188,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45932</v>
+        <v>44981</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3208,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3250,14 +3245,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45401</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3265,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3307,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45268</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45138</v>
+        <v>45268</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3421,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44725</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3478,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44981</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3493,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3535,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44981</v>
+        <v>45138</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45030</v>
+        <v>45019</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45189</v>
+        <v>44805</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45139</v>
+        <v>45932</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45520</v>
+        <v>45733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3782,8 +3777,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44596</v>
+        <v>45139</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>44960</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45019</v>
+        <v>45727</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45306</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45594</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45225</v>
+        <v>45571</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45517</v>
+        <v>44981</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45426</v>
+        <v>44981</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45189</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45520</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45411</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45817</v>
+        <v>45139</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45817</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.2</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45089</v>
+        <v>44981</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45401</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45177</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>10.3</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45394</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1487,13 +1487,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1530,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44273</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1550,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1587,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45594</v>
+        <v>44960</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45225</v>
+        <v>44273</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45426</v>
+        <v>45571</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45517</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1835,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1872,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>44958</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1892,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1929,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1949,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45030</v>
+        <v>45817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2006,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2038,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45411</v>
+        <v>45817</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2058,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2095,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45817</v>
+        <v>45733</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2119,8 +2114,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>10.2</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45817</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44596</v>
+        <v>45089</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45434</v>
+        <v>45701</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2290,8 +2290,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2333,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2353,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2390,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2410,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2447,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45930</v>
+        <v>44981</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2467,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2504,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>44981</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2524,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2561,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44958</v>
+        <v>45030</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2581,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2618,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2638,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2675,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44984</v>
+        <v>45394</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2689,8 +2694,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2737,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45701</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2746,13 +2756,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2789,14 +2794,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44725</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2814,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2846,14 +2851,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45863</v>
+        <v>45139</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2871,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2903,14 +2908,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2928,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2960,14 +2965,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45863</v>
+        <v>45189</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2985,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3017,14 +3022,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>44805</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3042,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3074,14 +3079,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45268</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3099,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3131,14 +3136,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45177</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3156,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>10.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3188,14 +3193,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44981</v>
+        <v>45138</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3208,7 +3213,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3245,14 +3250,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45401</v>
+        <v>44725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,7 +3270,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3307,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45139</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3327,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45268</v>
+        <v>45520</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3384,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3421,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3478,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3498,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3535,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45138</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3555,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3594,7 +3599,7 @@
         <v>45019</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3644,14 +3649,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44805</v>
+        <v>45306</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45932</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45733</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3777,13 +3782,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45139</v>
+        <v>45930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44960</v>
+        <v>45594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45727</v>
+        <v>45225</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45517</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45426</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45571</v>
+        <v>45863</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44981</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44981</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45189</v>
+        <v>45863</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45520</v>
+        <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45139</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45932</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 24802-2025</t>
+          <t>A 24809-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -799,216 +799,216 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 24802-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 1510-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>3.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Svart stork</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24809-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44981</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45401</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>44273</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45030</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44960</v>
+        <v>45817</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>10.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44273</v>
+        <v>45817</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45571</v>
+        <v>44596</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45306</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44958</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45727</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45817</v>
+        <v>44958</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45817</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2095,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45733</v>
+        <v>44984</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2114,13 +2114,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2152,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45701</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2176,8 +2171,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45089</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45701</v>
+        <v>44725</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2290,13 +2290,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2333,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44984</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2390,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2447,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44981</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2504,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44981</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2561,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45030</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2618,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45434</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2675,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45394</v>
+        <v>45863</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2694,13 +2689,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2737,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45863</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2794,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>44981</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2814,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2851,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45139</v>
+        <v>45401</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2871,7 +2861,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2908,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2928,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2965,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45189</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2985,7 +2975,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3022,14 +3012,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44805</v>
+        <v>45138</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3042,7 +3032,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3079,14 +3069,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45268</v>
+        <v>45019</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3099,7 +3089,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3136,14 +3126,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45177</v>
+        <v>44805</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3156,7 +3146,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.3</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3193,14 +3183,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45138</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3203,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3250,14 +3240,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44725</v>
+        <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3269,8 +3259,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3307,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45520</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3421,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44596</v>
+        <v>45932</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3478,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>44960</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3493,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3535,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45727</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45019</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45306</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>44981</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3778,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3815,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45930</v>
+        <v>44981</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3835,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3872,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45594</v>
+        <v>45189</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3892,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3929,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45225</v>
+        <v>45520</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3949,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3986,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45517</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4006,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4043,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45426</v>
+        <v>45139</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4063,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4100,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45863</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4120,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4157,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45089</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4177,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4214,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45177</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4234,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.9</v>
+        <v>10.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4271,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45863</v>
+        <v>45394</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4295,8 +4290,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45411</v>
+        <v>45594</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45225</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45932</v>
+        <v>45517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 24809-2025</t>
+          <t>A 24802-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -799,127 +799,127 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 24809-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 24802-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45306</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44273</v>
+        <v>45517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45411</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45030</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45817</v>
+        <v>44273</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45817</v>
+        <v>45411</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44596</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45434</v>
+        <v>45817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>10.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45306</v>
+        <v>45817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44958</v>
+        <v>44596</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2095,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44984</v>
+        <v>45930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2152,14 +2152,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45701</v>
+        <v>45434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2171,13 +2171,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2209,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45306</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2229,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2266,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44725</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2286,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2323,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2343,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2380,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45930</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2400,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2437,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>44984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2457,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2494,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45863</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2551,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45863</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2608,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45701</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2632,8 +2627,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45863</v>
+        <v>44725</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45863</v>
+        <v>45932</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44981</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45401</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2898,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45268</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3012,14 +3012,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45138</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3069,14 +3069,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45019</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3126,14 +3126,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44805</v>
+        <v>44981</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45401</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3240,14 +3240,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45733</v>
+        <v>45268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3259,13 +3259,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3297,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45139</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3317,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3354,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45138</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3374,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3411,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45932</v>
+        <v>45019</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3431,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3468,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44960</v>
+        <v>44805</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3488,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3525,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45727</v>
+        <v>45733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3549,8 +3544,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45139</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>44960</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45571</v>
+        <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44981</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3815,14 +3815,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44981</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45189</v>
+        <v>45571</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3929,14 +3929,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45520</v>
+        <v>44981</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3986,14 +3986,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>44981</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4043,14 +4043,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45139</v>
+        <v>45189</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45520</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4157,14 +4157,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45089</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4214,14 +4214,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45177</v>
+        <v>45139</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>10.3</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4271,14 +4271,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45394</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4290,13 +4290,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4328,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45594</v>
+        <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4348,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4385,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45225</v>
+        <v>45177</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4405,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4442,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45426</v>
+        <v>45394</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4466,8 +4461,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45517</v>
+        <v>45594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 24802-2025</t>
+          <t>A 1510-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45799</v>
+        <v>45306</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -799,216 +799,216 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Svart stork</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 24802-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 24809-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24809-2025 artfynd.xlsx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24809-2025 karta.png", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24809-2025 FSC-klagomål.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24809-2025 FSC-klagomål mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24809-2025 tillsynsbegäran.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24809-2025 tillsynsbegäran mail.docx", "A 24809-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24809-2025 prioriterade fågelarter.docx", "A 24809-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 1510-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Svart stork</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45225</v>
+        <v>45594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45426</v>
+        <v>45225</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45517</v>
+        <v>45426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45517</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44273</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45411</v>
+        <v>44273</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45817</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45030</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44596</v>
+        <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>45930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,14 +2152,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45434</v>
+        <v>44596</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2209,14 +2209,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45306</v>
+        <v>45434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2266,14 +2266,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45306</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2323,14 +2323,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44958</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2380,14 +2380,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2437,14 +2437,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44984</v>
+        <v>45863</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2494,14 +2494,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45863</v>
+        <v>44958</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2551,14 +2551,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45863</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2608,14 +2608,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45701</v>
+        <v>44984</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2627,13 +2627,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2665,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44725</v>
+        <v>45701</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2689,8 +2684,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45932</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>44725</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2898,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44981</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45401</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3297,14 +3297,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45932</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3354,14 +3354,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45138</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3411,14 +3411,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45019</v>
+        <v>45138</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3468,14 +3468,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44805</v>
+        <v>45019</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3525,14 +3525,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45733</v>
+        <v>44805</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3544,13 +3544,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3582,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45139</v>
+        <v>45733</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3606,8 +3601,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44960</v>
+        <v>45139</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45727</v>
+        <v>44960</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45727</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3815,14 +3815,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45571</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3929,14 +3929,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44981</v>
+        <v>45571</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3986,14 +3986,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4043,14 +4043,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45189</v>
+        <v>44981</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45520</v>
+        <v>45189</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4157,14 +4157,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45520</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4214,14 +4214,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45139</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4271,14 +4271,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45139</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4328,14 +4328,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45089</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45177</v>
+        <v>45089</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45394</v>
+        <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4461,13 +4461,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>10.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4499,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45594</v>
+        <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4523,8 +4518,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1510-2024</t>
+          <t>A 24802-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45306</v>
+        <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -799,127 +799,127 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 1510-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Svart stork</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 1510-2024 artfynd.xlsx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 1510-2024 karta.png", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 1510-2024 FSC-klagomål.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 1510-2024 FSC-klagomål mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 1510-2024 tillsynsbegäran.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 1510-2024 tillsynsbegäran mail.docx", "A 1510-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 1510-2024 prioriterade fågelarter.docx", "A 1510-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 24802-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/artfynd/A 24802-2025 artfynd.xlsx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/kartor/A 24802-2025 karta.png", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomål/A 24802-2025 FSC-klagomål.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/klagomålsmail/A 24802-2025 FSC-klagomål mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsyn/A 24802-2025 tillsynsbegäran.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/tillsynsmail/A 24802-2025 tillsynsbegäran mail.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1285/fåglar/A 24802-2025 prioriterade fågelarter.docx", "A 24802-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45594</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45225</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45426</v>
+        <v>45594</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45517</v>
+        <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45225</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45517</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44273</v>
+        <v>45426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45411</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45817</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10.2</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45863</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45817</v>
+        <v>45863</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45030</v>
+        <v>44981</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2095,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45930</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2152,14 +2152,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44596</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2209,14 +2209,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45434</v>
+        <v>45571</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2266,14 +2266,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45306</v>
+        <v>45817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2323,14 +2323,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>10.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2380,14 +2380,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45863</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2437,14 +2437,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45863</v>
+        <v>45930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2494,14 +2494,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44958</v>
+        <v>45733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2513,8 +2513,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2551,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2608,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44984</v>
+        <v>45089</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2665,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45701</v>
+        <v>44984</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2684,13 +2689,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44725</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2898,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>44805</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3012,14 +3012,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45177</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3069,14 +3069,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3126,14 +3126,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44981</v>
+        <v>44960</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45401</v>
+        <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3240,14 +3240,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45268</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3297,14 +3297,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45932</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3354,14 +3354,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45932</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3411,14 +3411,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45138</v>
+        <v>45727</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3468,14 +3468,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45019</v>
+        <v>45701</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3487,8 +3487,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3525,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44805</v>
+        <v>45434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3582,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45733</v>
+        <v>45394</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3612,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3649,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45139</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44960</v>
+        <v>45139</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45727</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,7 +3783,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3815,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45268</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3835,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3872,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45138</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3929,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45571</v>
+        <v>44725</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3949,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3993,7 +3998,7 @@
         <v>44981</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4055,7 @@
         <v>44981</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4100,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45189</v>
+        <v>45030</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4157,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45520</v>
+        <v>45189</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4214,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45139</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4271,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45139</v>
+        <v>45520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4328,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>44596</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4348,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4385,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45089</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4405,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4442,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45177</v>
+        <v>45019</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4462,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4499,14 +4504,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45394</v>
+        <v>45306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4518,13 +4523,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45401</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45030</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45594</v>
+        <v>45817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44958</v>
+        <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45225</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45517</v>
+        <v>45434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45426</v>
+        <v>45306</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45863</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1924,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45863</v>
+        <v>44984</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44981</v>
+        <v>45701</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2000,8 +2000,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2038,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45411</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2095,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2152,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>44725</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2209,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45571</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2266,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45817</v>
+        <v>45863</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2323,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45817</v>
+        <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2343,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2380,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2437,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45930</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2457,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2494,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45733</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2513,13 +2518,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>44981</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45089</v>
+        <v>45401</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44984</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45268</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2898,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2955,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44805</v>
+        <v>45019</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3012,14 +3012,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45177</v>
+        <v>44805</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10.3</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3069,14 +3069,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45733</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3088,8 +3088,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3126,14 +3131,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44960</v>
+        <v>45139</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3151,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3183,14 +3188,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44273</v>
+        <v>45932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3208,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3240,14 +3245,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 9849-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>46072</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3265,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3297,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>44960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3354,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45932</v>
+        <v>45727</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3411,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45727</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3468,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45701</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3487,13 +3492,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45434</v>
+        <v>45571</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45394</v>
+        <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3606,13 +3606,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45139</v>
+        <v>45189</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3721,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45520</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3778,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3815,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45268</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3835,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3872,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3892,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3929,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44725</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3949,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3986,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44981</v>
+        <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4006,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4043,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44981</v>
+        <v>45177</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4063,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4100,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45030</v>
+        <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4124,8 +4119,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45189</v>
+        <v>45594</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45139</v>
+        <v>45225</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45520</v>
+        <v>45426</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44596</v>
+        <v>45517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45019</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4501,17 +4501,17 @@
       </c>
       <c r="R67" s="2" t="inlineStr"/>
     </row>
-    <row r="68">
+    <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45306</v>
+        <v>45411</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4557,6 +4557,63 @@
         <v>0</v>
       </c>
       <c r="R68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>A 28093-2025</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45030</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45902.63017361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45306</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45747.52465277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45705.36702546296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44984</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45701</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44725</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45089.34219907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>45863</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44981</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45401</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45268</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45089.33711805556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45019</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44805</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45733</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45139</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>46072</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45727</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45370.45334490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45371.59097222222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45571</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45189</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45520</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45754.43791666667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45139</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45161.44363425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45177</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45594</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45225</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45426</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45793.47238425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45793.48923611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45411</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45817</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44273</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45030</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45902.63017361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45306</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45915.36627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45747.52465277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45705.36702546296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44984</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45701</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44725</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45089.34219907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>45863</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45863</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44981</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45401</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45268</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45089.33711805556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45019</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44805</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45733</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45139</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>46072</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45727</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45370.45334490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45371.59097222222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45571</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45189</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45520</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45754.43791666667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45139</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45161.44363425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45177</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45594</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45225</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45426</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45793.47238425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45793.48923611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45411</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45817</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,14 +1012,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 74008-2021</t>
+          <t>A 18872-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44553</v>
+        <v>44690</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 18872-2022</t>
+          <t>A 74008-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44690</v>
+        <v>44553</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>44984</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44273</v>
+        <v>45401</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45030</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45817</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44596</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>44805</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45434</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45306</v>
+        <v>45177</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>10.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>44958</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45733</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1772,8 +1772,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1810,14 +1815,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44958</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1835,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1867,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1924,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44984</v>
+        <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1949,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45701</v>
+        <v>45727</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>44960</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45930</v>
+        <v>44273</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44725</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45863</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45863</v>
+        <v>45139</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45701</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2461,8 +2461,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2504,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>44981</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2524,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2561,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44981</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2581,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2618,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45401</v>
+        <v>45268</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2638,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2675,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45434</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2695,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2732,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45268</v>
+        <v>45394</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2746,8 +2751,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2794,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45138</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2804,7 +2814,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2841,14 +2851,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45571</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2861,7 +2871,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2898,14 +2908,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45138</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2918,7 +2928,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2955,14 +2965,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45019</v>
+        <v>44725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2975,7 +2985,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3012,14 +3022,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44805</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3042,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3069,14 +3079,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45733</v>
+        <v>44981</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3088,13 +3098,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3131,14 +3136,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45139</v>
+        <v>44981</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3156,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3188,14 +3193,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45932</v>
+        <v>45030</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3208,7 +3213,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3245,14 +3250,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9849-2026</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46072</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,7 +3270,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3307,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44960</v>
+        <v>45930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3327,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45727</v>
+        <v>45189</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3384,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3421,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45139</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3478,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45520</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3498,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3535,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45571</v>
+        <v>45863</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3555,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3592,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44981</v>
+        <v>45863</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3612,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3649,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44981</v>
+        <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45189</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45520</v>
+        <v>45019</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,7 +3783,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3815,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45306</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3835,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3872,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45139</v>
+        <v>45594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3929,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45225</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3949,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3986,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45089</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4006,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4043,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45177</v>
+        <v>45517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4063,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4100,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45394</v>
+        <v>45426</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4119,13 +4124,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45594</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45225</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45426</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45517</v>
+        <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45817</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.9</v>
+        <v>10.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45411</v>
+        <v>45932</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4558,17 +4558,17 @@
       </c>
       <c r="R68" s="2" t="inlineStr"/>
     </row>
-    <row r="69">
+    <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 9849-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45817</v>
+        <v>46072</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10.2</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4614,6 +4614,63 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>A 10111-2026</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>46074.71814814815</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,14 +1012,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 18872-2022</t>
+          <t>A 74008-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44690</v>
+        <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 74008-2021</t>
+          <t>A 18872-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44553</v>
+        <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44984</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>45177</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1316,8 +1316,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1379,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1416,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45594</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1436,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1468,14 +1473,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45225</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1493,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1525,14 +1530,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44805</v>
+        <v>45426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1550,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1582,14 +1587,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>44273</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1639,14 +1644,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45177</v>
+        <v>45517</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1664,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1696,14 +1701,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44958</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1753,14 +1758,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45733</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1772,13 +1777,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1815,14 +1815,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1872,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45411</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1929,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45089</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1986,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45727</v>
+        <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44960</v>
+        <v>45817</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>10.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44273</v>
+        <v>45817</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>44596</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45139</v>
+        <v>45434</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45306</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45701</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2461,13 +2461,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2504,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44981</v>
+        <v>44958</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2561,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2618,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45268</v>
+        <v>44984</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2675,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45434</v>
+        <v>45701</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2694,8 +2689,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2732,14 +2732,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45394</v>
+        <v>45863</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2751,13 +2751,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2794,14 +2789,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45138</v>
+        <v>45863</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2814,7 +2809,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2851,14 +2846,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45571</v>
+        <v>44725</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2871,7 +2866,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2908,14 +2903,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2928,7 +2923,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2965,14 +2960,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44725</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2985,7 +2980,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3022,14 +3017,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3042,7 +3037,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3079,14 +3074,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44981</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3099,7 +3094,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3136,14 +3131,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44981</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3156,7 +3151,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3193,14 +3188,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45030</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3208,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3250,14 +3245,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>44981</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3265,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3307,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45930</v>
+        <v>45401</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45189</v>
+        <v>45268</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3421,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45139</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3478,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45520</v>
+        <v>45138</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3493,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3535,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45863</v>
+        <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45863</v>
+        <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44596</v>
+        <v>45932</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3725,8 +3720,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 9849-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45306</v>
+        <v>46072</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 10111-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45594</v>
+        <v>46074.71814814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45225</v>
+        <v>44960</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45727</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45517</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45426</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45571</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>44981</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>44981</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45411</v>
+        <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45817</v>
+        <v>45520</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45817</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45932</v>
+        <v>45139</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9849-2026</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46072</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10111-2026</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46074.71814814815</v>
+        <v>45089</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 12079-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45377.54229166666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 15533-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45177</v>
+        <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45394</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1316,13 +1316,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45594</v>
+        <v>45733</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,6 +1428,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1473,14 +1473,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45225</v>
+        <v>44981</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45426</v>
+        <v>44981</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1587,14 +1587,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44273</v>
+        <v>45030</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1644,14 +1644,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45517</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45189</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1758,14 +1758,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1815,14 +1815,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1872,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45411</v>
+        <v>44984</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1929,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1986,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45030</v>
+        <v>45139</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45817</v>
+        <v>44981</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10.2</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45817</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>45520</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45930</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>44596</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45434</v>
+        <v>45571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45306</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45019</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44958</v>
+        <v>45306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45727</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44984</v>
+        <v>44805</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45701</v>
+        <v>45177</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2689,13 +2689,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>10.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2732,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45863</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2789,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45863</v>
+        <v>45701</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2808,8 +2803,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2846,14 +2846,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44725</v>
+        <v>45594</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2903,14 +2903,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45225</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2960,14 +2960,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12079-2024</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45377.54229166666</v>
+        <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45517</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3074,14 +3074,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>44273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3131,14 +3131,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3188,14 +3188,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3245,14 +3245,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44981</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3302,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15533-2024</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45401</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3359,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45268</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3416,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3473,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45138</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3530,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 16792-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45019</v>
+        <v>45411</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44805</v>
+        <v>45434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45932</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3701,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45733</v>
+        <v>45930</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3720,13 +3720,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45139</v>
+        <v>45394</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3782,8 +3777,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9849-2026</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46072</v>
+        <v>45817</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10111-2026</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46074.71814814815</v>
+        <v>45817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>10.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44960</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45727</v>
+        <v>45139</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45863</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45571</v>
+        <v>45863</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44981</v>
+        <v>45268</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44981</v>
+        <v>45138</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45189</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45520</v>
+        <v>44725</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45139</v>
+        <v>45932</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 10111-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>46074.71814814815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 9849-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45089</v>
+        <v>46072</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 11221-2024</t>
+          <t>A 15467-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45371.59097222222</v>
+        <v>45747.52465277778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 15467-2025</t>
+          <t>A 11221-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45747.52465277778</v>
+        <v>45371.59097222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 12605-2025</t>
+          <t>A 5869-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45733</v>
+        <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1430,13 +1430,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1473,14 +1468,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9484-2023</t>
+          <t>A 9482-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1488,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1530,14 +1525,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9487-2023</t>
+          <t>A 25385-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44981</v>
+        <v>45089.33711805556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1550,7 +1545,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1587,14 +1582,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16733-2023</t>
+          <t>A 43808-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45030</v>
+        <v>45571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11204-2023</t>
+          <t>A 28088-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44992.60141203704</v>
+        <v>45817</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 44496-2023</t>
+          <t>A 28093-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45189</v>
+        <v>45817</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>10.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25508-2023</t>
+          <t>A 41803-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45089</v>
+        <v>45902.63017361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 5869-2023</t>
+          <t>A 12605-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44958</v>
+        <v>45733</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1834,8 +1829,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1872,14 +1872,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9686-2023</t>
+          <t>A 11204-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44984</v>
+        <v>44992.60141203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1929,14 +1929,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61020-2024</t>
+          <t>A 25508-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45645.45321759259</v>
+        <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1986,14 +1986,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34466-2023</t>
+          <t>A 9686-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45139</v>
+        <v>44984</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9482-2023</t>
+          <t>A 61020-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44981</v>
+        <v>45645.45321759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2100,14 +2100,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25385-2023</t>
+          <t>A 43943-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45089.33711805556</v>
+        <v>45915.36627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2157,14 +2157,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33865-2024</t>
+          <t>A 47345-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45520</v>
+        <v>45930.57266203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7409-2025</t>
+          <t>A 47356-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45705.36702546296</v>
+        <v>45930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2271,14 +2271,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 5812-2022</t>
+          <t>A 7409-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44596</v>
+        <v>45705.36702546296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2328,14 +2328,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 43808-2024</t>
+          <t>A 36761-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45571</v>
+        <v>44805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38173-2023</t>
+          <t>A 42050-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45161.44363425926</v>
+        <v>45177</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>10.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2442,14 +2442,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15357-2023</t>
+          <t>A 25388-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45019</v>
+        <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2499,14 +2499,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1574-2024</t>
+          <t>A 35996-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45306</v>
+        <v>45863</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2556,14 +2556,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11732-2025</t>
+          <t>A 6545-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45727</v>
+        <v>44960</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2613,14 +2613,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36761-2022</t>
+          <t>A 35997-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44805</v>
+        <v>45863</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2670,14 +2670,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42050-2023</t>
+          <t>A 13437-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45177</v>
+        <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2727,14 +2727,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25388-2023</t>
+          <t>A 61035-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45089.34219907408</v>
+        <v>45645.46634259259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2784,14 +2784,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7016-2025</t>
+          <t>A 10940-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45701</v>
+        <v>45370.45334490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2803,13 +2803,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2846,14 +2841,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49137-2024</t>
+          <t>A 11732-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45594</v>
+        <v>45727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2861,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2903,14 +2898,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52652-2023</t>
+          <t>A 7016-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45225</v>
+        <v>45701</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2922,8 +2917,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2960,14 +2960,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6545-2023</t>
+          <t>A 61179-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44960</v>
+        <v>46000.58121527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32984-2024</t>
+          <t>A 20160-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45517</v>
+        <v>45434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3074,14 +3074,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13437-2021</t>
+          <t>A 14488-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44273</v>
+        <v>45394</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3093,8 +3093,13 @@
           <t>ESLÖV</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3131,14 +3136,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18713-2024</t>
+          <t>A 16670-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45426</v>
+        <v>45754.43791666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3156,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3188,14 +3193,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61035-2024</t>
+          <t>A 34468-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45645.46634259259</v>
+        <v>45139</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3208,7 +3213,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3245,14 +3250,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10940-2024</t>
+          <t>A 10773-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45370.45334490741</v>
+        <v>45722.47409722222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,7 +3270,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3302,14 +3307,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41803-2025</t>
+          <t>A 47870-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45902.63017361111</v>
+        <v>45932</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,7 +3327,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23767-2025</t>
+          <t>A 62496-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45793.47238425926</v>
+        <v>45268</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,7 +3384,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3416,14 +3421,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23773-2025</t>
+          <t>A 10111-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45793.48923611111</v>
+        <v>46074.71814814815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3473,14 +3478,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43943-2025</t>
+          <t>A 34170-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45915.36627314815</v>
+        <v>45138</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3498,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3530,14 +3535,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16792-2024</t>
+          <t>A 24115-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45411</v>
+        <v>44725</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3555,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3587,14 +3592,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20160-2024</t>
+          <t>A 9849-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45434</v>
+        <v>46072</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3612,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3644,14 +3649,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47345-2025</t>
+          <t>A 10819-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45930.57266203704</v>
+        <v>46078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47356-2025</t>
+          <t>A 2691-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45930</v>
+        <v>46037.66427083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14488-2024</t>
+          <t>A 9484-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45394</v>
+        <v>44981</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3777,13 +3782,8 @@
           <t>ESLÖV</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28088-2025</t>
+          <t>A 9487-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45817</v>
+        <v>44981</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28093-2025</t>
+          <t>A 16733-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45817</v>
+        <v>45030</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>10.2</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16670-2025</t>
+          <t>A 44496-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45754.43791666667</v>
+        <v>45189</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34468-2023</t>
+          <t>A 34466-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10773-2025</t>
+          <t>A 33865-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45722.47409722222</v>
+        <v>45520</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35996-2025</t>
+          <t>A 5812-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45863</v>
+        <v>44596</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35997-2025</t>
+          <t>A 38173-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45863</v>
+        <v>45161.44363425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62496-2023</t>
+          <t>A 15357-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45268</v>
+        <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34170-2023</t>
+          <t>A 1574-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45138</v>
+        <v>45306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2691-2026</t>
+          <t>A 49137-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46037.66427083333</v>
+        <v>45594</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24115-2022</t>
+          <t>A 52652-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44725</v>
+        <v>45225</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61179-2025</t>
+          <t>A 32984-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46000.58121527778</v>
+        <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47870-2025</t>
+          <t>A 18713-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45932</v>
+        <v>45426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10111-2026</t>
+          <t>A 23767-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46074.71814814815</v>
+        <v>45793.47238425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4615,17 +4615,17 @@
       </c>
       <c r="R69" s="2" t="inlineStr"/>
     </row>
-    <row r="70">
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9849-2026</t>
+          <t>A 23773-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46072</v>
+        <v>45793.48923611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4671,6 +4671,63 @@
         <v>0</v>
       </c>
       <c r="R70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>A 16792-2024</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45799</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44337</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45377.54229166666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45747.52465277778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45371.59097222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44981</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45089.33711805556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45817</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45817</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45902.63017361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45733</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>44992.60141203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44984</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45645.45321759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45915.36627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>45930.57266203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>45705.36702546296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44805</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45177</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>45089.34219907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45863</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44960</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45863</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45645.46634259259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45370.45334490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>45701</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>46000.58121527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45394</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45754.43791666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45722.47409722222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45932</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45268</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>46074.71814814815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45138</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44725</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>46072</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>46078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>46037.66427083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44981</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44981</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45030</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45189</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>45139</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45520</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44596</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45161.44363425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45594</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45225</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45793.47238425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45793.48923611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45411</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
